--- a/Code/Results/Cases/Case_0_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_191/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.119304676776737</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.12196038132006</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.1161701680791</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.127904994434566</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.123999001747241</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.124529601422634</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.118753420251056</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.130459969277125</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.12559520925421</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.127664215780251</v>
+      </c>
+      <c r="D3">
+        <v>1.130245961736733</v>
+      </c>
+      <c r="E3">
+        <v>1.123868479459844</v>
+      </c>
+      <c r="F3">
+        <v>1.135996793085002</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.132002632217993</v>
+      </c>
+      <c r="K3">
+        <v>1.132624321884997</v>
+      </c>
+      <c r="L3">
+        <v>1.126260994390175</v>
+      </c>
+      <c r="M3">
+        <v>1.138362534929378</v>
+      </c>
+      <c r="N3">
+        <v>1.133610205798259</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.132947309507168</v>
+      </c>
+      <c r="D4">
+        <v>1.135482112853167</v>
+      </c>
+      <c r="E4">
+        <v>1.128730064556552</v>
+      </c>
+      <c r="F4">
+        <v>1.141109202607363</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.137058083070235</v>
+      </c>
+      <c r="K4">
+        <v>1.137738054612336</v>
+      </c>
+      <c r="L4">
+        <v>1.131000125158201</v>
+      </c>
+      <c r="M4">
+        <v>1.143353513834912</v>
+      </c>
+      <c r="N4">
+        <v>1.13867283597058</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.135139873017657</v>
+      </c>
+      <c r="D5">
+        <v>1.13765514392095</v>
+      </c>
+      <c r="E5">
+        <v>1.130746827842141</v>
+      </c>
+      <c r="F5">
+        <v>1.143230573106085</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.13915552419747</v>
+      </c>
+      <c r="K5">
+        <v>1.139859853327383</v>
+      </c>
+      <c r="L5">
+        <v>1.132965615156432</v>
+      </c>
+      <c r="M5">
+        <v>1.145424052766248</v>
+      </c>
+      <c r="N5">
+        <v>1.140773255704796</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.135506393849026</v>
+      </c>
+      <c r="D6">
+        <v>1.138018396573479</v>
+      </c>
+      <c r="E6">
+        <v>1.131083909989166</v>
+      </c>
+      <c r="F6">
+        <v>1.143585171911093</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.139506105929837</v>
+      </c>
+      <c r="K6">
+        <v>1.140214516735941</v>
+      </c>
+      <c r="L6">
+        <v>1.133294099720917</v>
+      </c>
+      <c r="M6">
+        <v>1.145770128801815</v>
+      </c>
+      <c r="N6">
+        <v>1.141124335303435</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.132976716235405</v>
+      </c>
+      <c r="D7">
+        <v>1.135511257814118</v>
+      </c>
+      <c r="E7">
+        <v>1.128757116874112</v>
+      </c>
+      <c r="F7">
+        <v>1.141137655904346</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.137086216566354</v>
+      </c>
+      <c r="K7">
+        <v>1.13776651412458</v>
+      </c>
+      <c r="L7">
+        <v>1.131026491579322</v>
+      </c>
+      <c r="M7">
+        <v>1.143381287094018</v>
+      </c>
+      <c r="N7">
+        <v>1.138701009419491</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.122157017915828</v>
+      </c>
+      <c r="D8">
+        <v>1.124787528306763</v>
+      </c>
+      <c r="E8">
+        <v>1.118797655344379</v>
+      </c>
+      <c r="F8">
+        <v>1.130666289255099</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.126730476943624</v>
+      </c>
+      <c r="K8">
+        <v>1.127292006072973</v>
+      </c>
+      <c r="L8">
+        <v>1.121316231663542</v>
+      </c>
+      <c r="M8">
+        <v>1.133157085735206</v>
+      </c>
+      <c r="N8">
+        <v>1.128330563458676</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1.102039934531944</v>
+      </c>
+      <c r="D9">
+        <v>1.104847368016243</v>
+      </c>
+      <c r="E9">
+        <v>1.100250893134303</v>
+      </c>
+      <c r="F9">
+        <v>1.11118513892995</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.107454070148865</v>
+      </c>
+      <c r="K9">
+        <v>1.107800584862893</v>
+      </c>
+      <c r="L9">
+        <v>1.103217200130149</v>
+      </c>
+      <c r="M9">
+        <v>1.114120499327236</v>
+      </c>
+      <c r="N9">
+        <v>1.109026781955234</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>1.087787962179358</v>
+      </c>
+      <c r="D10">
+        <v>1.090719880111934</v>
+      </c>
+      <c r="E10">
+        <v>1.087091556710094</v>
+      </c>
+      <c r="F10">
+        <v>1.097375928771619</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.093782463933669</v>
+      </c>
+      <c r="K10">
+        <v>1.093980725407807</v>
+      </c>
+      <c r="L10">
+        <v>1.090364021598866</v>
+      </c>
+      <c r="M10">
+        <v>1.100615676725918</v>
+      </c>
+      <c r="N10">
+        <v>1.095335760491057</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1.081382692465389</v>
+      </c>
+      <c r="D11">
+        <v>1.084370398681284</v>
+      </c>
+      <c r="E11">
+        <v>1.08117263567308</v>
+      </c>
+      <c r="F11">
+        <v>1.091167864868083</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.087634357319996</v>
+      </c>
+      <c r="K11">
+        <v>1.087766984655374</v>
+      </c>
+      <c r="L11">
+        <v>1.084579976699061</v>
+      </c>
+      <c r="M11">
+        <v>1.094541818690224</v>
+      </c>
+      <c r="N11">
+        <v>1.089178922860795</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>1.078964939073185</v>
+      </c>
+      <c r="D12">
+        <v>1.081973683810008</v>
+      </c>
+      <c r="E12">
+        <v>1.078937754034468</v>
+      </c>
+      <c r="F12">
+        <v>1.088824287447462</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.085313117384772</v>
+      </c>
+      <c r="K12">
+        <v>1.085421122203573</v>
+      </c>
+      <c r="L12">
+        <v>1.082395588277872</v>
+      </c>
+      <c r="M12">
+        <v>1.092248501545242</v>
+      </c>
+      <c r="N12">
+        <v>1.086854386498612</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1.079485358840486</v>
+      </c>
+      <c r="D13">
+        <v>1.082489575854963</v>
+      </c>
+      <c r="E13">
+        <v>1.07941884266446</v>
+      </c>
+      <c r="F13">
+        <v>1.089328752603295</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.085812787876311</v>
+      </c>
+      <c r="K13">
+        <v>1.085926085775232</v>
+      </c>
+      <c r="L13">
+        <v>1.0828658272755</v>
+      </c>
+      <c r="M13">
+        <v>1.092742166282711</v>
+      </c>
+      <c r="N13">
+        <v>1.087354766579563</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1.081183647709834</v>
+      </c>
+      <c r="D14">
+        <v>1.084173086318726</v>
+      </c>
+      <c r="E14">
+        <v>1.080988660412731</v>
+      </c>
+      <c r="F14">
+        <v>1.090974932024696</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.087443269475324</v>
+      </c>
+      <c r="K14">
+        <v>1.087573866631374</v>
+      </c>
+      <c r="L14">
+        <v>1.084400166886468</v>
+      </c>
+      <c r="M14">
+        <v>1.094353031702777</v>
+      </c>
+      <c r="N14">
+        <v>1.088987563649466</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>1.082224802801905</v>
+      </c>
+      <c r="D15">
+        <v>1.085205178914857</v>
+      </c>
+      <c r="E15">
+        <v>1.081950961859958</v>
+      </c>
+      <c r="F15">
+        <v>1.091984106560745</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.08844278123293</v>
+      </c>
+      <c r="K15">
+        <v>1.08858400396395</v>
+      </c>
+      <c r="L15">
+        <v>1.085340662839535</v>
+      </c>
+      <c r="M15">
+        <v>1.095340504048453</v>
+      </c>
+      <c r="N15">
+        <v>1.089988494828413</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>1.088207847655103</v>
+      </c>
+      <c r="D16">
+        <v>1.09113610555084</v>
+      </c>
+      <c r="E16">
+        <v>1.087479462762295</v>
+      </c>
+      <c r="F16">
+        <v>1.097782850249194</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.09418541499349</v>
+      </c>
+      <c r="K16">
+        <v>1.094387999846755</v>
+      </c>
+      <c r="L16">
+        <v>1.090743028912449</v>
+      </c>
+      <c r="M16">
+        <v>1.101013746105168</v>
+      </c>
+      <c r="N16">
+        <v>1.095739283787601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>1.091895923151712</v>
+      </c>
+      <c r="D17">
+        <v>1.094792015500115</v>
+      </c>
+      <c r="E17">
+        <v>1.090886112206198</v>
+      </c>
+      <c r="F17">
+        <v>1.101356854609649</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.097724330268716</v>
+      </c>
+      <c r="K17">
+        <v>1.09796500264659</v>
+      </c>
+      <c r="L17">
+        <v>1.094071206934785</v>
+      </c>
+      <c r="M17">
+        <v>1.104509703043902</v>
+      </c>
+      <c r="N17">
+        <v>1.099283224728439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1.094024780004712</v>
+      </c>
+      <c r="D18">
+        <v>1.096902290237659</v>
+      </c>
+      <c r="E18">
+        <v>1.092852077358439</v>
+      </c>
+      <c r="F18">
+        <v>1.103419697666066</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.099766741765803</v>
+      </c>
+      <c r="K18">
+        <v>1.100029493036327</v>
+      </c>
+      <c r="L18">
+        <v>1.09599162020208</v>
+      </c>
+      <c r="M18">
+        <v>1.106527250701907</v>
+      </c>
+      <c r="N18">
+        <v>1.101328536684119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1.094746972908725</v>
+      </c>
+      <c r="D19">
+        <v>1.097618176634024</v>
+      </c>
+      <c r="E19">
+        <v>1.093518935412886</v>
+      </c>
+      <c r="F19">
+        <v>1.104119467254663</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.100459550407832</v>
+      </c>
+      <c r="K19">
+        <v>1.100729807548202</v>
+      </c>
+      <c r="L19">
+        <v>1.096642982065061</v>
+      </c>
+      <c r="M19">
+        <v>1.107211613066831</v>
+      </c>
+      <c r="N19">
+        <v>1.102022329193886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>1.091502560931584</v>
+      </c>
+      <c r="D20">
+        <v>1.094402085547081</v>
+      </c>
+      <c r="E20">
+        <v>1.090522812489091</v>
+      </c>
+      <c r="F20">
+        <v>1.100975676466854</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.097346913127793</v>
+      </c>
+      <c r="K20">
+        <v>1.097583513419844</v>
+      </c>
+      <c r="L20">
+        <v>1.093716303464051</v>
+      </c>
+      <c r="M20">
+        <v>1.104136874696807</v>
+      </c>
+      <c r="N20">
+        <v>1.098905271611884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>1.080684637450542</v>
+      </c>
+      <c r="D21">
+        <v>1.083678418914677</v>
+      </c>
+      <c r="E21">
+        <v>1.080527418392757</v>
+      </c>
+      <c r="F21">
+        <v>1.090491240292648</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.086964198430277</v>
+      </c>
+      <c r="K21">
+        <v>1.087089708328404</v>
+      </c>
+      <c r="L21">
+        <v>1.083949361000581</v>
+      </c>
+      <c r="M21">
+        <v>1.093879727314776</v>
+      </c>
+      <c r="N21">
+        <v>1.088507812268584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1.073657937970955</v>
+      </c>
+      <c r="D22">
+        <v>1.076712831908882</v>
+      </c>
+      <c r="E22">
+        <v>1.07403085891796</v>
+      </c>
+      <c r="F22">
+        <v>1.083679628785356</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.080216935054338</v>
+      </c>
+      <c r="K22">
+        <v>1.080271175818132</v>
+      </c>
+      <c r="L22">
+        <v>1.077598746938142</v>
+      </c>
+      <c r="M22">
+        <v>1.087213423769946</v>
+      </c>
+      <c r="N22">
+        <v>1.081750967004729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>1.077405499610206</v>
+      </c>
+      <c r="D23">
+        <v>1.080427809188465</v>
+      </c>
+      <c r="E23">
+        <v>1.077496067012628</v>
+      </c>
+      <c r="F23">
+        <v>1.087312618175303</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1.083815771345137</v>
+      </c>
+      <c r="K23">
+        <v>1.083907937891716</v>
+      </c>
+      <c r="L23">
+        <v>1.080986350313281</v>
+      </c>
+      <c r="M23">
+        <v>1.090769136901201</v>
+      </c>
+      <c r="N23">
+        <v>1.085354914055853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>1.091680373158752</v>
+      </c>
+      <c r="D24">
+        <v>1.094578346328207</v>
+      </c>
+      <c r="E24">
+        <v>1.090687036890532</v>
+      </c>
+      <c r="F24">
+        <v>1.101147981628322</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.097517518746033</v>
+      </c>
+      <c r="K24">
+        <v>1.097755959459529</v>
+      </c>
+      <c r="L24">
+        <v>1.093876733289349</v>
+      </c>
+      <c r="M24">
+        <v>1.104305406242958</v>
+      </c>
+      <c r="N24">
+        <v>1.099076119509672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.107378175432822</v>
+      </c>
+      <c r="D25">
+        <v>1.110138820798592</v>
+      </c>
+      <c r="E25">
+        <v>1.105175833197972</v>
+      </c>
+      <c r="F25">
+        <v>1.116355975449588</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.112571814778311</v>
+      </c>
+      <c r="K25">
+        <v>1.112974696917711</v>
+      </c>
+      <c r="L25">
+        <v>1.10802518921861</v>
+      </c>
+      <c r="M25">
+        <v>1.119175148149723</v>
+      </c>
+      <c r="N25">
+        <v>1.114151794369068</v>
       </c>
     </row>
   </sheetData>
